--- a/lineups/test.xlsx
+++ b/lineups/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Temp</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>PacketLengthPayload</t>
+  </si>
+  <si>
+    <t>tx_gain_row</t>
   </si>
   <si>
     <t>Dac_fssel_val</t>
@@ -452,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +463,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,6 +562,817 @@
       </c>
       <c r="AG1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2">
+        <v>-30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>255</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3">
+        <v>-30</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>255</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4">
+        <v>-30</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>255</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5">
+        <v>-30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6">
+        <v>-30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>17</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7">
+        <v>-30</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8">
+        <v>-30</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>17</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9">
+        <v>-30</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
